--- a/biology/Zoologie/Henricia/Henricia.xlsx
+++ b/biology/Zoologie/Henricia/Henricia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henricia est un genre d'étoiles de mer (Asteroidea) de la famille des Echinasteridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des étoiles régulières de taille moyenne, aux couleurs généralement vives (jaune, orange, rouge...) et souvent unies. Les 5 bras (rarement plus ou moins) sont généralement fins et pointus, et le disque central relativement réduit.
 Ce genre comporte autant des espèces littorales communes des régions tempérées que des espèces abyssales extrémophiles. 
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (26 décembre 2013)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (26 décembre 2013) :
 Henricia abyssalis Mortensen, 1933
 Henricia ambigua Djakonov, 1958
 Henricia angusta Djakonov, 1961
@@ -638,7 +654,7 @@
 Henricia tumida Verrill, 1914
 Henricia uluudax Clark &amp; Jewett, 2010
 Henricia vermilion Clark &amp; Jewett, 2010
-Selon ITIS      (26 décembre 2013)[2] :
+Selon ITIS      (26 décembre 2013) :
 Henricia antillarum
 Henricia aspera Fisher, 1906
 Henricia asthenactis Fisher, 1910
